--- a/Documentación/Bocetos y conceptos/Prueba de concepto Transportadores sin fin.xlsx
+++ b/Documentación/Bocetos y conceptos/Prueba de concepto Transportadores sin fin.xlsx
@@ -15,7 +15,19 @@
     <sheet name="Mediciones tomadas" sheetId="1" r:id="rId1"/>
     <sheet name="Análisis de los datos" sheetId="2" r:id="rId2"/>
     <sheet name="Densidad de materiales" sheetId="3" r:id="rId3"/>
+    <sheet name="Medición del torque" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Mediciones tomadas'!$AA$77</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Mediciones tomadas'!$AA$78:$AA$116</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Mediciones tomadas'!$Z$77</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Mediciones tomadas'!$Z$78:$Z$118</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Mediciones tomadas'!$AA$26:$AA$54</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Mediciones tomadas'!$AA$77</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Mediciones tomadas'!$AA$78:$AA$116</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Mediciones tomadas'!$Z$77</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Mediciones tomadas'!$Z$78:$Z$116</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>Este excel corresponde a los resultados obtenidos a partir de la prueba de concepto realizada a los transportadores sin fin con el objetivo de obtener información valiosa que permita hacer o rechazar consideraciones de diseño.</t>
   </si>
@@ -212,6 +224,90 @@
   </si>
   <si>
     <t>Ocupación (%)</t>
+  </si>
+  <si>
+    <t>TORNILLO SIN FIN SIN EJE</t>
+  </si>
+  <si>
+    <t>Cantidad de material descargado por vuelta</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BROCA DE DERDIQUÍ PEQUEÑA</t>
+  </si>
+  <si>
+    <t>se comienxa a depositar material solo que la ro,aa no lo ve</t>
+  </si>
+  <si>
+    <t>Lleno (vuelta)</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>La función de autozero de la romana dificultó seguir adelante con las mediciones</t>
+  </si>
+  <si>
+    <t>Cantidad de material por vuelta</t>
+  </si>
+  <si>
+    <t>Cantidad de material (g) por vuelta</t>
+  </si>
+  <si>
+    <t>TORNILLO SIN FIN SIN  EJE 3 in</t>
+  </si>
+  <si>
+    <t>Conclusiones obtendas de esta prueba de concepto</t>
+  </si>
+  <si>
+    <t>1. El tsf del citrocon debe estar inclinado porque al ser el material peletizado las partes finas se tienden a deslizar por el tubo.</t>
+  </si>
+  <si>
+    <t>Citrocon</t>
+  </si>
+  <si>
+    <t>Herramienta utilizada</t>
+  </si>
+  <si>
+    <t>Alicate de presión</t>
+  </si>
+  <si>
+    <t>Masa (g)</t>
+  </si>
+  <si>
+    <t>Distancia del centro de masa respecto alpunto de rotación (cm)</t>
+  </si>
+  <si>
+    <t>Incertidumbres</t>
+  </si>
+  <si>
+    <t>Angulo respecto a la vertical</t>
+  </si>
+  <si>
+    <t>Torque requerido (Nm)</t>
+  </si>
+  <si>
+    <t>2. El torque requerido para mover el tornillo 0,04 Nm</t>
+  </si>
+  <si>
+    <t>3. Se requiere de un rol que reciba el tornillo para que no se arecueste a las paredes y bajar el torque de la pieza</t>
+  </si>
+  <si>
+    <t>4. El largo del tornillo de pruebas es de 35 cm +- 0,1. Ajustar el dato de torque para el tamaño real.</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Desviación estándar</t>
   </si>
 </sst>
 </file>
@@ -369,7 +465,7 @@
     <cellStyle name="Énfasis6" xfId="3" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -381,6 +477,108 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -517,7 +715,1211 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Distribución de frecuencias cantidad de material por vuelta del TSF del concentrado</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{2F004014-66C6-4459-B674-2ED65ACDB7CB}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="17.75"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{AB9F04F5-75E2-42CA-8048-3AF1A04BC1E5}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Material (g)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -629,7 +2031,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E6:F20" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E6:F20" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="E6:F20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Vuelta"/>
@@ -640,6 +2042,102 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla9216" displayName="Tabla9216" ref="G31:I81" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="G31:I81"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Vuelta"/>
+    <tableColumn id="2" name="Material (g)"/>
+    <tableColumn id="3" name="Columna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla10517" displayName="Tabla10517" ref="A31:E46" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A31:E46"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Corrida"/>
+    <tableColumn id="2" name="Cantidad"/>
+    <tableColumn id="3" name="Lleno (vuelta)"/>
+    <tableColumn id="4" name="Columna1"/>
+    <tableColumn id="5" name="Columna2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="Z25:AA54" totalsRowShown="0">
+  <autoFilter ref="Z25:AA54"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Material (g)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla9219" displayName="Tabla9219" ref="AD58:AE75" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="AD58:AE75"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Vuelta"/>
+    <tableColumn id="2" name="Material (g)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla10520" displayName="Tabla10520" ref="Z58:AB61" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="Z58:AB61"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Cantidad (g)"/>
+    <tableColumn id="2" name="Lleno (vueltas)"/>
+    <tableColumn id="3" name="Vacío (vueltas)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla1721" displayName="Tabla1721" ref="Z77:AA118" totalsRowShown="0">
+  <autoFilter ref="Z77:AA118"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Material (g)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A11:B15" totalsRowShown="0">
+  <autoFilter ref="A11:B15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Columna1"/>
+    <tableColumn id="2" name="Columna2">
+      <calculatedColumnFormula>'Mediciones tomadas'!B8</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A18:C21" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A18:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Característica"/>
+    <tableColumn id="2" name="Levadura" dataDxfId="3"/>
+    <tableColumn id="3" name="Concentrado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A2:C8" totalsRowShown="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
@@ -652,7 +2150,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A15:C18" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A15:C18" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A15:C18"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Cantidad (g)"/>
@@ -664,7 +2162,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A21:A25" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A21:A25" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A21:A25"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Vueltas"/>
@@ -674,7 +2172,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="U6:V23" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="U6:V23" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="U6:V23"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Vuelta"/>
@@ -685,7 +2183,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="Q6:S8" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="Q6:S8" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="Q6:S8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Cantidad (g)"/>
@@ -697,7 +2195,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="L6:M19" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="L6:M19" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="L6:M19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Vuelta"/>
@@ -712,34 +2210,32 @@
   <autoFilter ref="A6:B12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="Valor" dataDxfId="5"/>
+    <tableColumn id="2" name="Valor" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A11:B15" totalsRowShown="0">
-  <autoFilter ref="A11:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla92" displayName="Tabla92" ref="AD6:AE23" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="AD6:AE23"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1"/>
-    <tableColumn id="2" name="Columna2">
-      <calculatedColumnFormula>'Mediciones tomadas'!B8</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Vuelta"/>
+    <tableColumn id="2" name="Material (g)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A18:C21" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A18:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla105" displayName="Tabla105" ref="Z6:AB8" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="Z6:AB8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Característica"/>
-    <tableColumn id="2" name="Levadura" dataDxfId="3"/>
-    <tableColumn id="3" name="Concentrado" dataDxfId="2"/>
+    <tableColumn id="1" name="Cantidad (g)"/>
+    <tableColumn id="2" name="Lleno (vueltas)"/>
+    <tableColumn id="3" name="Vacío (vueltas)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1006,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:AG118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="S96" workbookViewId="0">
+      <selection activeCell="AD111" sqref="AD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,14 +2517,15 @@
     <col min="17" max="17" width="13.85546875" customWidth="1"/>
     <col min="18" max="20" width="16.28515625" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -1069,8 +2566,20 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="16"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="16"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +2604,17 @@
       <c r="U5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1152,8 +2670,30 @@
       <c r="X6">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1196,8 +2736,23 @@
       <c r="V7">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7">
+        <v>20</v>
+      </c>
+      <c r="AB7">
+        <v>24.5</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1234,8 +2789,23 @@
       <c r="V8">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>150</v>
+      </c>
+      <c r="AA8">
+        <v>70</v>
+      </c>
+      <c r="AB8">
+        <v>74</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1263,8 +2833,16 @@
       <c r="V9">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1289,8 +2867,14 @@
       <c r="V10">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1321,8 +2905,17 @@
       <c r="V11">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1353,8 +2946,17 @@
       <c r="V12">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>7</v>
       </c>
@@ -1385,8 +2987,20 @@
       <c r="V13">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13">
+        <v>698</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1414,8 +3028,17 @@
       <c r="V14">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1447,8 +3070,17 @@
       <c r="V15">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>9</v>
+      </c>
+      <c r="AE15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1482,8 +3114,17 @@
       <c r="V16">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -1517,8 +3158,17 @@
       <c r="V17">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17">
+        <v>11</v>
+      </c>
+      <c r="AE17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1547,8 +3197,14 @@
       <c r="V18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>13</v>
       </c>
@@ -1567,8 +3223,17 @@
       <c r="V19">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD19">
+        <v>13</v>
+      </c>
+      <c r="AE19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1584,8 +3249,20 @@
       <c r="V20">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD20">
+        <v>14</v>
+      </c>
+      <c r="AE20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,8 +3272,17 @@
       <c r="V21">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>15</v>
+      </c>
+      <c r="AE21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1606,8 +3292,14 @@
       <c r="V22">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AD22">
+        <v>16</v>
+      </c>
+      <c r="AE22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1617,30 +3309,1293 @@
       <c r="V23">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AD23">
+        <v>17</v>
+      </c>
+      <c r="AE23">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>695</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
+      <c r="Z25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AA32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+      <c r="AA33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>9</v>
+      </c>
+      <c r="AA34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>10</v>
+      </c>
+      <c r="AA35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>23.5</v>
+      </c>
+      <c r="F36">
+        <v>-94</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>11</v>
+      </c>
+      <c r="AA36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>27</v>
+      </c>
+      <c r="F37">
+        <v>-96</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>12</v>
+      </c>
+      <c r="AA37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>-94</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>13</v>
+      </c>
+      <c r="AA38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>-94</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>14</v>
+      </c>
+      <c r="AA39">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>-94</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>15</v>
+      </c>
+      <c r="AA40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>-95</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>16</v>
+      </c>
+      <c r="AA41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>17</v>
+      </c>
+      <c r="AA42">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+      <c r="AA43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>19</v>
+      </c>
+      <c r="AA44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>20</v>
+      </c>
+      <c r="AA45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>21</v>
+      </c>
+      <c r="AA46">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>23</v>
+      </c>
+      <c r="AA47">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>24</v>
+      </c>
+      <c r="AA48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>25</v>
+      </c>
+      <c r="AA49">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>26</v>
+      </c>
+      <c r="AA50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>27</v>
+      </c>
+      <c r="AA51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>21</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>28</v>
+      </c>
+      <c r="AA52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>29</v>
+      </c>
+      <c r="AA53">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA54">
+        <f>AVERAGE(AA26:AA53)</f>
+        <v>106.78571428571429</v>
+      </c>
+    </row>
+    <row r="55" spans="7:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>25</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB56" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="16"/>
+    </row>
+    <row r="57" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>27</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>28</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>5</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>100</v>
+      </c>
+      <c r="AD60">
+        <v>2</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>30</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>500</v>
+      </c>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61">
+        <v>3</v>
+      </c>
+      <c r="AE61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>31</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD62">
+        <v>4</v>
+      </c>
+      <c r="AE62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>32</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>33</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>34</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA65">
+        <v>698</v>
+      </c>
+      <c r="AD65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>36</v>
+      </c>
+      <c r="Z67">
+        <v>6</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>37</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>39</v>
+      </c>
+      <c r="AD70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>41</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>42</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>43</v>
+      </c>
+      <c r="AD74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>44</v>
+      </c>
+      <c r="AD75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>46</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>47</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>53</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>48</v>
+      </c>
+      <c r="Z79">
+        <v>2</v>
+      </c>
+      <c r="AA79">
+        <v>46</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>49</v>
+      </c>
+      <c r="Z80">
+        <v>3</v>
+      </c>
+      <c r="AA80">
+        <v>62</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="Z81">
+        <v>4</v>
+      </c>
+      <c r="AA81">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z82">
+        <v>5</v>
+      </c>
+      <c r="AA82">
+        <v>43</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z83">
+        <v>6</v>
+      </c>
+      <c r="AA83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z84">
+        <v>7</v>
+      </c>
+      <c r="AA84">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z85">
+        <v>8</v>
+      </c>
+      <c r="AA85">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z86">
+        <v>9</v>
+      </c>
+      <c r="AA86">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z87">
+        <v>10</v>
+      </c>
+      <c r="AA87">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z88">
+        <v>11</v>
+      </c>
+      <c r="AA88">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z89">
+        <v>12</v>
+      </c>
+      <c r="AA89">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z90">
+        <v>13</v>
+      </c>
+      <c r="AA90">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z91">
+        <v>14</v>
+      </c>
+      <c r="AA91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z92">
+        <v>15</v>
+      </c>
+      <c r="AA92">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z93">
+        <v>16</v>
+      </c>
+      <c r="AA93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z94">
+        <v>17</v>
+      </c>
+      <c r="AA94">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z95">
+        <v>18</v>
+      </c>
+      <c r="AA95">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="Z96">
+        <v>19</v>
+      </c>
+      <c r="AA96">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z97">
+        <v>20</v>
+      </c>
+      <c r="AA97">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z98">
+        <v>21</v>
+      </c>
+      <c r="AA98">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z99">
+        <v>23</v>
+      </c>
+      <c r="AA99">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z100">
+        <v>24</v>
+      </c>
+      <c r="AA100">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z101">
+        <v>25</v>
+      </c>
+      <c r="AA101">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z102">
+        <v>26</v>
+      </c>
+      <c r="AA102">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z103">
+        <v>27</v>
+      </c>
+      <c r="AA103">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z104">
+        <v>28</v>
+      </c>
+      <c r="AA104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z105">
+        <v>29</v>
+      </c>
+      <c r="AA105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z106">
+        <v>30</v>
+      </c>
+      <c r="AA106">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z107">
+        <v>31</v>
+      </c>
+      <c r="AA107">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z108">
+        <v>32</v>
+      </c>
+      <c r="AA108">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z109">
+        <v>33</v>
+      </c>
+      <c r="AA109">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z110">
+        <v>34</v>
+      </c>
+      <c r="AA110">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z111">
+        <v>35</v>
+      </c>
+      <c r="AA111">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z112">
+        <v>36</v>
+      </c>
+      <c r="AA112">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z113">
+        <v>37</v>
+      </c>
+      <c r="AA113">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z114">
+        <v>38</v>
+      </c>
+      <c r="AA114">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z115">
+        <v>39</v>
+      </c>
+      <c r="AA115">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z116">
+        <v>40</v>
+      </c>
+      <c r="AA116">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z117" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA117">
+        <f>AVERAGE(AA78:AA116)</f>
+        <v>58.615384615384613</v>
+      </c>
+    </row>
+    <row r="118" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z118" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA118">
+        <f>_xlfn.STDEV.S(AA78:AA116)</f>
+        <v>7.0060702425050865</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="7">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="15">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1902,4 +4857,77 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <f>B3/1000*B4/100*SIN(B5*PI()/180)</f>
+        <v>3.4648232278140824E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>